--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter 2020\265P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB57919-00CB-457B-9173-A580AAB34A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01BDA6D-95BA-47F5-BB5B-5878AF1968C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -75,9 +75,6 @@
     <t>vaishakhiification</t>
   </si>
   <si>
-    <t>05:00 pm - 07:00 pm</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -91,6 +88,84 @@
   </si>
   <si>
     <t>Excited to see what this course has to offer.</t>
+  </si>
+  <si>
+    <t>11:00 am - 02:00 pm</t>
+  </si>
+  <si>
+    <t>To successfully build and run 3 projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was able to run 2 projects. </t>
+  </si>
+  <si>
+    <t>Had some trouble building the projects. Maybe I should've read the readme thoroughly first.</t>
+  </si>
+  <si>
+    <t>Little frustated about fixing the errors. Errors were a little random.</t>
+  </si>
+  <si>
+    <t>Team formation</t>
+  </si>
+  <si>
+    <t>Formed a group of three members for the project and added the team information on Excel sheet</t>
+  </si>
+  <si>
+    <t>Anjana, Aman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to learn git properly. </t>
+  </si>
+  <si>
+    <t>Excited to be working with my team for the rest of the quarter</t>
+  </si>
+  <si>
+    <t>05:00 pm - 07:50 pm</t>
+  </si>
+  <si>
+    <t>Didn't know what to expect. Probably learn more about code reading and understanding.</t>
+  </si>
+  <si>
+    <t>Was able to check the code to understand its functionality briefly by successfully navigating through the project. Felt motivated after Mr.Ping interaction with the class.</t>
+  </si>
+  <si>
+    <t>Search is a good tool to navigate the  files efficiently. Also, find usages was effective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivated! </t>
+  </si>
+  <si>
+    <t>Select an open source project on GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored various open source projects available on GitHub, selected OpenRefine and submitted the pull request. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrowing down one project from a list of possible options was more difficult that expected. </t>
+  </si>
+  <si>
+    <t>A little unsure of the selected project.</t>
+  </si>
+  <si>
+    <t>10:00 pm - 10:30 pm</t>
+  </si>
+  <si>
+    <t>06:00 pm - 10:00 pm</t>
+  </si>
+  <si>
+    <t>11:00 am - 12:30 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To complete the individual homework assigned. </t>
+  </si>
+  <si>
+    <t>Completed the given homework.</t>
+  </si>
+  <si>
+    <t>Figured out some details for adding the fruits to the game, though unsure of some details.</t>
+  </si>
+  <si>
+    <t>Hopefully what I submitted was correct.</t>
   </si>
 </sst>
 </file>
@@ -255,9 +330,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -275,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -594,40 +669,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="14" customWidth="1"/>
     <col min="2" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -636,7 +711,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -649,10 +724,10 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -662,7 +737,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -675,7 +750,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -684,7 +759,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -716,102 +791,172 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>43839</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>43843</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>43844</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>43846</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>43848</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>43849</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -820,7 +965,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
@@ -829,16 +974,16 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -847,7 +992,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -856,7 +1001,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -865,7 +1010,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -874,7 +1019,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -883,7 +1028,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -892,7 +1037,7 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -901,7 +1046,7 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -910,7 +1055,7 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -919,7 +1064,7 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -928,7 +1073,7 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -937,7 +1082,7 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -946,7 +1091,7 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -955,7 +1100,7 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -964,7 +1109,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -973,7 +1118,7 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -982,7 +1127,7 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -991,7 +1136,7 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1000,7 +1145,7 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1009,7 +1154,7 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1018,7 +1163,7 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1027,7 +1172,7 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1036,7 +1181,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1045,7 +1190,7 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1054,7 +1199,7 @@
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1063,7 +1208,7 @@
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1072,7 +1217,7 @@
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1081,7 +1226,7 @@
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1090,7 +1235,7 @@
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1099,7 +1244,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1108,7 +1253,7 @@
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1117,7 +1262,7 @@
       <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1126,7 +1271,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1135,7 +1280,7 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1144,7 +1289,7 @@
       <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -1153,7 +1298,7 @@
       <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -1162,7 +1307,7 @@
       <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -1171,7 +1316,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -1180,7 +1325,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -1189,7 +1334,7 @@
       <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -1198,7 +1343,7 @@
       <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -1207,7 +1352,7 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -1216,7 +1361,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -1225,7 +1370,7 @@
       <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -1234,7 +1379,7 @@
       <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -1243,7 +1388,7 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -1252,7 +1397,7 @@
       <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -1261,7 +1406,7 @@
       <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -1270,7 +1415,7 @@
       <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1279,7 +1424,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1288,7 +1433,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1297,7 +1442,7 @@
       <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1306,7 +1451,7 @@
       <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1315,7 +1460,7 @@
       <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1324,7 +1469,7 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1333,7 +1478,7 @@
       <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1342,7 +1487,7 @@
       <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1351,7 +1496,7 @@
       <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1360,7 +1505,7 @@
       <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -1369,7 +1514,7 @@
       <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -1378,7 +1523,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -1387,7 +1532,7 @@
       <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -1396,7 +1541,7 @@
       <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -1405,7 +1550,7 @@
       <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -1414,7 +1559,7 @@
       <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -1423,7 +1568,7 @@
       <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -1432,7 +1577,7 @@
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -1441,7 +1586,7 @@
       <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="14"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -1450,7 +1595,7 @@
       <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="14"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -1459,7 +1604,7 @@
       <c r="G90" s="8"/>
     </row>
     <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -1468,7 +1613,7 @@
       <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -1477,7 +1622,7 @@
       <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -1486,7 +1631,7 @@
       <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -1495,7 +1640,7 @@
       <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="14"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -1504,7 +1649,7 @@
       <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="14"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -1513,7 +1658,7 @@
       <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="14"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -1522,7 +1667,7 @@
       <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="14"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -1531,7 +1676,7 @@
       <c r="G98" s="8"/>
     </row>
     <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -1540,7 +1685,7 @@
       <c r="G99" s="8"/>
     </row>
     <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="14"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -1549,7 +1694,7 @@
       <c r="G100" s="8"/>
     </row>
     <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="14"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -1558,7 +1703,7 @@
       <c r="G101" s="8"/>
     </row>
     <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="14"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -1567,7 +1712,7 @@
       <c r="G102" s="8"/>
     </row>
     <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -1576,7 +1721,7 @@
       <c r="G103" s="8"/>
     </row>
     <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="14"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -1585,7 +1730,7 @@
       <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -1594,7 +1739,7 @@
       <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="14"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -1603,7 +1748,7 @@
       <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="14"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -1612,7 +1757,7 @@
       <c r="G107" s="8"/>
     </row>
     <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="14"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -1621,7 +1766,7 @@
       <c r="G108" s="8"/>
     </row>
     <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -1630,7 +1775,7 @@
       <c r="G109" s="8"/>
     </row>
     <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -1639,7 +1784,7 @@
       <c r="G110" s="8"/>
     </row>
     <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -1648,7 +1793,7 @@
       <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="14"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -1657,7 +1802,7 @@
       <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="14"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -1666,7 +1811,7 @@
       <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="14"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -1675,7 +1820,7 @@
       <c r="G114" s="8"/>
     </row>
     <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="14"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -1684,7 +1829,7 @@
       <c r="G115" s="8"/>
     </row>
     <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="14"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -1693,7 +1838,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="14"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -1702,7 +1847,7 @@
       <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="14"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -1711,7 +1856,7 @@
       <c r="G118" s="8"/>
     </row>
     <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -1720,7 +1865,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="14"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -1729,7 +1874,7 @@
       <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="14"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -1738,7 +1883,7 @@
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="14"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -1747,7 +1892,7 @@
       <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="14"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -1756,22 +1901,13 @@
       <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="14"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01BDA6D-95BA-47F5-BB5B-5878AF1968C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C96C7-1C1D-40D6-A648-2385626F2F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -166,13 +166,82 @@
   </si>
   <si>
     <t>Hopefully what I submitted was correct.</t>
+  </si>
+  <si>
+    <t>Learning new concepts</t>
+  </si>
+  <si>
+    <t>Understood the importance of having a visual model. Made a UML diagram for a project. Noted down the code flow while figuring out how a certain feature was implemented.</t>
+  </si>
+  <si>
+    <t>Having a mental model of a problem makes it easier for you to understand the flow of the code and hence helps you understand the code better.</t>
+  </si>
+  <si>
+    <t>Making UML diagram for a project is something that I didn’t know before. Excited to use it in the future.</t>
+  </si>
+  <si>
+    <t>Searching for a new open source project.</t>
+  </si>
+  <si>
+    <t>We were unsure of the previosuly selected project. Therefore we started searching for a new one. We decided on H2 database. We built the project and created a pull request for the same</t>
+  </si>
+  <si>
+    <t>We wanted to select elasticsearch but ended up not selecting it because it looked challenging. But we were not satisfied with the selected one. Then when we wanted to shift to elasticsearch again, we noticed that someone had already taken it. Realised we shouldnt have backed out on it just because it looked more challenging.</t>
+  </si>
+  <si>
+    <t>Happy that the new one got accepted.</t>
+  </si>
+  <si>
+    <t>12:00 pm - 03:00 pm</t>
+  </si>
+  <si>
+    <t>08:00 pm - 10:00 pm</t>
+  </si>
+  <si>
+    <t>Work on the homework given.</t>
+  </si>
+  <si>
+    <t>Created a UML diagram for the project. After taking a look decided on the create table and set user privilege features for the homework.</t>
+  </si>
+  <si>
+    <t>The UML for this project was pretty confusing. Navigating through the Uml was a task. Searching for a class in the UML almost seemed impossible.</t>
+  </si>
+  <si>
+    <t>Happy that we were atleast able to select two features.</t>
+  </si>
+  <si>
+    <t>10:00 pm - 01:00 am</t>
+  </si>
+  <si>
+    <t>Analysed the selected features and wrote down the flow in detail. We tried to make ourselves understand how the feature really worked and what it did. Finally able to figure out where in the UML diagram our classes were present.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templates were helpful as we kept noting down many paths out of which only some were relevant. It made our analyzing easier. </t>
+  </si>
+  <si>
+    <t>Hopefully we have done enough.</t>
+  </si>
+  <si>
+    <t>10:00 am - 01:00 pm</t>
+  </si>
+  <si>
+    <t>Prepared the report.</t>
+  </si>
+  <si>
+    <t>Created a report to explain our findings. Created relevant UML classes diagrams.</t>
+  </si>
+  <si>
+    <t>Systematic approach taken by us helped us to create the report easily and efficienty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasn't an easy task. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +333,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -304,7 +380,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,6 +427,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -669,16 +749,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="14" customWidth="1"/>
-    <col min="2" max="7" width="34.6640625" customWidth="1"/>
+    <col min="2" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="17" customWidth="1"/>
+    <col min="5" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -701,7 +783,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -710,7 +792,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -723,7 +805,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -736,7 +818,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -749,7 +831,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -758,7 +840,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -767,7 +849,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -928,52 +1010,122 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>43850</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="156" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>43856</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>43856</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>43858</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>43860</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -982,7 +1134,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -991,7 +1143,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1000,7 +1152,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1009,7 +1161,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1018,7 +1170,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1027,7 +1179,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1036,7 +1188,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1045,7 +1197,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1054,7 +1206,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1063,7 +1215,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1072,7 +1224,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1081,7 +1233,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1090,7 +1242,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1099,7 +1251,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1108,7 +1260,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1117,7 +1269,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1126,7 +1278,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1135,7 +1287,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1144,7 +1296,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1153,7 +1305,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1162,7 +1314,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1171,7 +1323,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1180,7 +1332,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1189,7 +1341,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1198,7 +1350,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1207,7 +1359,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1216,7 +1368,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1225,7 +1377,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1234,7 +1386,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1243,7 +1395,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1252,7 +1404,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1261,7 +1413,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1270,7 +1422,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1279,7 +1431,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1288,7 +1440,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1297,7 +1449,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1306,7 +1458,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1315,7 +1467,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1324,7 +1476,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1333,7 +1485,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1342,7 +1494,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1351,7 +1503,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1360,7 +1512,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1369,7 +1521,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1378,7 +1530,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1387,7 +1539,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1396,7 +1548,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1405,7 +1557,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1414,7 +1566,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1423,7 +1575,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1432,7 +1584,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1441,7 +1593,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1450,7 +1602,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1459,7 +1611,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1468,7 +1620,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1477,7 +1629,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1486,7 +1638,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1495,7 +1647,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1504,7 +1656,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1513,7 +1665,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1522,7 +1674,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1531,7 +1683,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1540,7 +1692,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1549,7 +1701,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1558,7 +1710,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1567,7 +1719,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1576,7 +1728,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1585,7 +1737,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1594,7 +1746,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1603,7 +1755,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1612,7 +1764,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1621,7 +1773,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1630,7 +1782,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1639,7 +1791,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1648,7 +1800,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1657,7 +1809,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1666,7 +1818,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1675,7 +1827,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1684,7 +1836,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -1693,7 +1845,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -1702,7 +1854,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -1711,7 +1863,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -1720,7 +1872,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -1729,7 +1881,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -1738,7 +1890,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -1747,7 +1899,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -1756,7 +1908,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -1765,7 +1917,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -1774,7 +1926,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -1783,7 +1935,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -1792,7 +1944,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -1801,7 +1953,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -1810,7 +1962,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -1819,7 +1971,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -1828,7 +1980,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -1837,7 +1989,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -1846,7 +1998,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -1855,7 +2007,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -1864,7 +2016,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -1873,7 +2025,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -1882,7 +2034,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -1891,7 +2043,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -1899,15 +2051,6 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C96C7-1C1D-40D6-A648-2385626F2F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB279A-9C7B-42B8-9428-E285C5EB197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -235,6 +235,81 @@
   </si>
   <si>
     <t xml:space="preserve">Wasn't an easy task. </t>
+  </si>
+  <si>
+    <t>08:00 pm - 09:00 pm</t>
+  </si>
+  <si>
+    <t>To understand what was taught in the previous class.</t>
+  </si>
+  <si>
+    <t>Anjana and Aman explained about the key practises in reverse engineering and many ways to model the architecture.</t>
+  </si>
+  <si>
+    <t>We need to properly understand the code, because if we don’t it might lead to wrong assumptions and might affect out future decisions on it.</t>
+  </si>
+  <si>
+    <t>Excited to do the upcoming homework with this understanding.</t>
+  </si>
+  <si>
+    <t>To decide which features we would work on for the next homework.And how data is actually stored from h2 onto the disk.</t>
+  </si>
+  <si>
+    <t>We figured out the first feature. Second feature was work in progress and we decided to continue it the next time.</t>
+  </si>
+  <si>
+    <t>We had some problems running the application. The .jar file was not gettign detected so we had to downgrade our java version and edit the system path in pom.xml and do a clean project. Finding usages is a great help to discover the code flow.</t>
+  </si>
+  <si>
+    <t>Happy we could get the application running.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were not completely satisfied with our second feature so we decided to choose a new one to see how insert/delete works. </t>
+  </si>
+  <si>
+    <t>Able to somewhat figure out the next feature.</t>
+  </si>
+  <si>
+    <t>It was really hard figuring out the former feature.</t>
+  </si>
+  <si>
+    <t>Little frustated about not understanding the previous feature.</t>
+  </si>
+  <si>
+    <t>10:00 am - 12:00 pm</t>
+  </si>
+  <si>
+    <t>Complete figuring out the second figure.</t>
+  </si>
+  <si>
+    <t>11:00 am - 01:00 pm                    09:30 pm - 11:00 pm</t>
+  </si>
+  <si>
+    <t>We were able to figure out how this new feature works and able to draw out diagrams.</t>
+  </si>
+  <si>
+    <t>It was a little difficult to understand the code as we went a little deep into it as there were many attributes and functions that we had to make ourselves familiar with.</t>
+  </si>
+  <si>
+    <t>Happy that we could understand the feature.</t>
+  </si>
+  <si>
+    <t>10:00 pm - 02:00 am</t>
+  </si>
+  <si>
+    <t>10:00 am - 12:30 pm</t>
+  </si>
+  <si>
+    <t>Finishing the report</t>
+  </si>
+  <si>
+    <t>We finished writing our report complete with all the diagrams.</t>
+  </si>
+  <si>
+    <t>Because we had everything understood properly, we could easily write a report.</t>
+  </si>
+  <si>
+    <t>Happy to be able to complete everything in time.</t>
   </si>
 </sst>
 </file>
@@ -424,13 +499,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -751,37 +826,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="14" customWidth="1"/>
     <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="16" customWidth="1"/>
     <col min="5" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
@@ -1060,7 +1135,7 @@
       <c r="A18" s="12">
         <v>43856</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1125,50 +1200,120 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>43861</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>43864</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>43865</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>43866</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>43867</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>

--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB279A-9C7B-42B8-9428-E285C5EB197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4D490-A93B-41EF-AE10-75884FC2086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Happy to be able to complete everything in time.</t>
+  </si>
+  <si>
+    <t>We learned about the key expert practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realised how the KEP helped while trying to understand a slightly difficult code which had no documentation. </t>
+  </si>
+  <si>
+    <t>Nervous for midterm, Don’t know what to expect.</t>
   </si>
 </sst>
 </file>
@@ -826,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1315,14 +1324,28 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+    <row r="26" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>43867</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>

--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4D490-A93B-41EF-AE10-75884FC2086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DE0EAE-9941-40A3-9A44-9D9419A0549D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -319,6 +319,60 @@
   </si>
   <si>
     <t>Nervous for midterm, Don’t know what to expect.</t>
+  </si>
+  <si>
+    <t>09:00 am - 12:00 pm</t>
+  </si>
+  <si>
+    <t>Complete revision for the test</t>
+  </si>
+  <si>
+    <t>Referred to the slides and some articles on the internet to get a better understanding of the concepts like all the different types of structural and behavioral diagrams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since I had paid attention in class, it was easier to revise, as after reiterating the examples given in class to explain the concepts my understanding of it had greatly increased. </t>
+  </si>
+  <si>
+    <t>I feel like Ive prepared enough. But still nervous as this is my first exam in 3 years!</t>
+  </si>
+  <si>
+    <t>Successfully complete the test and learn something new!</t>
+  </si>
+  <si>
+    <t>I feel like I wasted my time on answers when it could've been completed in less time and that’s why I had to rush a little in the end and couldn't really write down all the points I wanted to for the last question. But overall good paper</t>
+  </si>
+  <si>
+    <t>Test went well! Also learned other points of KEP and the big picture like the stakeholders, the developers etc.</t>
+  </si>
+  <si>
+    <t>Next time I will manage my time better while giving an exam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gained a better understanding of how explanation of the flow must be done. Like giving more diagrams so the reader can relate to the given explanation of it better. </t>
+  </si>
+  <si>
+    <t>Hopefully our score for the frist assignment would increase.</t>
+  </si>
+  <si>
+    <t>To resubmit our first homework and start with the next homework</t>
+  </si>
+  <si>
+    <t>We added the missing UML diagrams and also explained the flow more clearly this time.Explained the features of the application.</t>
+  </si>
+  <si>
+    <t>11:00 pm - 12:00 am</t>
+  </si>
+  <si>
+    <t>To complete our assigment 3.</t>
+  </si>
+  <si>
+    <t>We completed our assignment 3 and put as much as relevant information needed. Formatted the document so that it would be pleasing to the reader.Succesfully selected the open issues which we think we can tackle. Also managed to find stakeholders of the application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It had many stakeholders to begin with. Realised why our application is unique. </t>
+  </si>
+  <si>
+    <t>Hopefully we have done a better job and that we don’t have to resubmit this assigment too.</t>
   </si>
 </sst>
 </file>
@@ -835,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1347,41 +1401,97 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>43874</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>43874</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>43876</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>43880</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>

--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DE0EAE-9941-40A3-9A44-9D9419A0549D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4D490-A93B-41EF-AE10-75884FC2086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -319,60 +319,6 @@
   </si>
   <si>
     <t>Nervous for midterm, Don’t know what to expect.</t>
-  </si>
-  <si>
-    <t>09:00 am - 12:00 pm</t>
-  </si>
-  <si>
-    <t>Complete revision for the test</t>
-  </si>
-  <si>
-    <t>Referred to the slides and some articles on the internet to get a better understanding of the concepts like all the different types of structural and behavioral diagrams.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since I had paid attention in class, it was easier to revise, as after reiterating the examples given in class to explain the concepts my understanding of it had greatly increased. </t>
-  </si>
-  <si>
-    <t>I feel like Ive prepared enough. But still nervous as this is my first exam in 3 years!</t>
-  </si>
-  <si>
-    <t>Successfully complete the test and learn something new!</t>
-  </si>
-  <si>
-    <t>I feel like I wasted my time on answers when it could've been completed in less time and that’s why I had to rush a little in the end and couldn't really write down all the points I wanted to for the last question. But overall good paper</t>
-  </si>
-  <si>
-    <t>Test went well! Also learned other points of KEP and the big picture like the stakeholders, the developers etc.</t>
-  </si>
-  <si>
-    <t>Next time I will manage my time better while giving an exam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gained a better understanding of how explanation of the flow must be done. Like giving more diagrams so the reader can relate to the given explanation of it better. </t>
-  </si>
-  <si>
-    <t>Hopefully our score for the frist assignment would increase.</t>
-  </si>
-  <si>
-    <t>To resubmit our first homework and start with the next homework</t>
-  </si>
-  <si>
-    <t>We added the missing UML diagrams and also explained the flow more clearly this time.Explained the features of the application.</t>
-  </si>
-  <si>
-    <t>11:00 pm - 12:00 am</t>
-  </si>
-  <si>
-    <t>To complete our assigment 3.</t>
-  </si>
-  <si>
-    <t>We completed our assignment 3 and put as much as relevant information needed. Formatted the document so that it would be pleasing to the reader.Succesfully selected the open issues which we think we can tackle. Also managed to find stakeholders of the application.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It had many stakeholders to begin with. Realised why our application is unique. </t>
-  </si>
-  <si>
-    <t>Hopefully we have done a better job and that we don’t have to resubmit this assigment too.</t>
   </si>
 </sst>
 </file>
@@ -889,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1401,97 +1347,41 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>43874</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>43874</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>43876</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>43880</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>113</v>
-      </c>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>

--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4D490-A93B-41EF-AE10-75884FC2086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF093204-49CA-4BEF-BCEC-3F2B32D3DE2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -319,6 +319,102 @@
   </si>
   <si>
     <t>Nervous for midterm, Don’t know what to expect.</t>
+  </si>
+  <si>
+    <t>09:00 am - 12:00 pm</t>
+  </si>
+  <si>
+    <t>Complete revision for the test</t>
+  </si>
+  <si>
+    <t>Referred to the slides and some articles on the internet to get a better understanding of the concepts like all the different types of structural and behavioral diagrams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since I had paid attention in class, it was easier to revise, as after reiterating the examples given in class to explain the concepts my understanding of it had greatly increased. </t>
+  </si>
+  <si>
+    <t>I feel like Ive prepared enough. But still nervous as this is my first exam in 3 years!</t>
+  </si>
+  <si>
+    <t>Successfully complete the test and learn something new!</t>
+  </si>
+  <si>
+    <t>I feel like I wasted my time on answers when it could've been completed in less time and that’s why I had to rush a little in the end and couldn't really write down all the points I wanted to for the last question. But overall good paper</t>
+  </si>
+  <si>
+    <t>Test went well! Also learned other points of KEP and the big picture like the stakeholders, the developers etc.</t>
+  </si>
+  <si>
+    <t>Next time I will manage my time better while giving an exam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gained a better understanding of how explanation of the flow must be done. Like giving more diagrams so the reader can relate to the given explanation of it better. </t>
+  </si>
+  <si>
+    <t>Hopefully our score for the frist assignment would increase.</t>
+  </si>
+  <si>
+    <t>To resubmit our first homework and start with the next homework</t>
+  </si>
+  <si>
+    <t>We added the missing UML diagrams and also explained the flow more clearly this time.Explained the features of the application.</t>
+  </si>
+  <si>
+    <t>11:00 pm - 12:00 am</t>
+  </si>
+  <si>
+    <t>To complete our assigment 3.</t>
+  </si>
+  <si>
+    <t>We completed our assignment 3 and put as much as relevant information needed. Formatted the document so that it would be pleasing to the reader.Succesfully selected the open issues which we think we can tackle. Also managed to find stakeholders of the application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It had many stakeholders to begin with. Realised why our application is unique. </t>
+  </si>
+  <si>
+    <t>Hopefully we have done a better job and that we don’t have to resubmit this assigment too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To learn new concepts </t>
+  </si>
+  <si>
+    <t>We learned more key expert practices. We were asked to draw the architecture for jpacman. Then we learned that it becomes a little easier after looking at the folder structure. Or also the UML.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we group the classes properly in the UML diagram, it is easier to figure out the architecture. Also folder structure helps a lot. </t>
+  </si>
+  <si>
+    <t>Stressed about the homework as it has finding and descibing the architecture which seems like a difficult task.</t>
+  </si>
+  <si>
+    <t>01:00 pm - 06:00 pm</t>
+  </si>
+  <si>
+    <t>Understanding and documenting the architecture.</t>
+  </si>
+  <si>
+    <t>Successfully understood the as described and as implemented architecture and we were able to document it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It became easy for us to understand the architecture as it was documented in their website, even though it was not updated we had a good starting point and got a general idea of the achitecture and were able to move forward. </t>
+  </si>
+  <si>
+    <t>Relieved as the most difficult of the project was completed.</t>
+  </si>
+  <si>
+    <t>09:00 pm - 12:00 am</t>
+  </si>
+  <si>
+    <t>Finish the remaining part of the assignment</t>
+  </si>
+  <si>
+    <t>Since the remaining parts were relatively easy, we divided it amongst ourselves and were able to finish it faster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process of contributing to the project was nicely mentioned in their website. So it was not hard to find. Also realised while browsing throught the issues and the pull requests that h2 community follow very strict guidelines and coding standards and expect the contributors to do th same. </t>
+  </si>
+  <si>
+    <t>Happy that we completed the assignment earlier.</t>
   </si>
 </sst>
 </file>
@@ -835,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1347,68 +1443,166 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>43874</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>43874</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>43876</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>43880</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>43881</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>43884</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>43885</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>

--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF093204-49CA-4BEF-BCEC-3F2B32D3DE2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162469E9-EC6F-4035-95A6-539FCFB87DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -415,6 +415,60 @@
   </si>
   <si>
     <t>Happy that we completed the assignment earlier.</t>
+  </si>
+  <si>
+    <t>05:00 pm - 07:00 pm</t>
+  </si>
+  <si>
+    <t>Discuss and complete the assignment given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As I could not attend the class that week as I had an interview preparation left, Anjana explained to us what was taught in the class and what the assignment is about.Also, we discussed what issues we could take on and their possible fixes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were certain issues that looked easy but couldn't be proceeded with because of the lack of proper description and testcases and steps to replicate the said issue. </t>
+  </si>
+  <si>
+    <t>Feeling anxious as we did not still find an issue to fix</t>
+  </si>
+  <si>
+    <t>05:00 pm - 09:00 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding design patterns in the code. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We tried finding whatever patterns we could find by reading documentations about it on the internet. We found around 6: adapter, command, factory, singleton, decorator and chain of responsibility. We decided to ove forward with the first 5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understood the importance of all the design patterns we documented. How it makes functionality and code of the project more organised. </t>
+  </si>
+  <si>
+    <t>Feeling great as we finished one part of the homework</t>
+  </si>
+  <si>
+    <t>Identify an issue and fix it.</t>
+  </si>
+  <si>
+    <t>We looked for many issues to fix. Finally found an issue that we all understood properly. Tried fixing it.</t>
+  </si>
+  <si>
+    <t>It was easier to understand the issue as it had less dependencies. Also, the comments in the issue section were helpful.</t>
+  </si>
+  <si>
+    <t>Happy to have one one issue finally.</t>
+  </si>
+  <si>
+    <t>Submit a pull request for the issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed the code changes and submitted a pull request after testing it. Finsihed the report. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fix was easy to do as we discussed it properly with the entire group. And also noted down the different scenarios to cover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling great as we completed the assigment. </t>
   </si>
 </sst>
 </file>
@@ -931,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1604,41 +1658,97 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+    <row r="34" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>43890</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>43891</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>43892</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>43894</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
